--- a/Translator/excel/Flattened/Flattened_Japanese.xlsx
+++ b/Translator/excel/Flattened/Flattened_Japanese.xlsx
@@ -10300,7 +10300,7 @@
     <t>&lt;tooltips&gt;&lt;browser_options&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;browser_options param="'le'"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;browser_options param=''le''&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;browser_shortcut&gt;</t>
@@ -10309,10 +10309,10 @@
     <t>&lt;tooltips&gt;&lt;browser_zoom&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;clone_deck param="left"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;clone_deck param="right"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;clone_deck param='left'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;clone_deck param='right'&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;clone_from_deck&gt;</t>
@@ -10345,19 +10345,19 @@
     <t>&lt;tooltips&gt;&lt;deck_options&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;display_time param="'elapsed,remain'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;display_time param="'remain,total'"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;display_time param=''elapsed,remain''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;display_time param=''remain,total''&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;effect_active&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;effect_clone param="left"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;effect_clone param="right"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;effect_clone param='left'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;effect_clone param='right'&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;effect_colorfx&gt;</t>
@@ -10369,10 +10369,10 @@
     <t>&lt;tooltips&gt;&lt;effect_select&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;effect_select param="-1"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;effect_select param="+1"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;effect_select param='-1'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;effect_select param='+1'&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;effect_show_gui&gt;</t>
@@ -10399,13 +10399,13 @@
     <t>&lt;tooltips&gt;&lt;filter_selectcolorfx&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;font_size param="-7%"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;font_size param="'big'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;font_size param="+7%"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;font_size param='-7%'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;font_size param=''big''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;font_size param='+7%'&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;get_battery&gt;</t>
@@ -10480,10 +10480,10 @@
     <t>&lt;tooltips&gt;&lt;key_match_button&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;key_move param="-1"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;key_move param="+1"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;key_move param='-1'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;key_move param='+1'&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;linein&gt;</t>
@@ -10495,19 +10495,19 @@
     <t>&lt;tooltips&gt;&lt;loop&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;loop_adjust param="'-1'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;loop_adjust param="'+1'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;loop_adjust param="'in'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;loop_adjust param="'move'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;loop_adjust param="'out'"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;loop_adjust param=''-1''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;loop_adjust param=''+1''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;loop_adjust param=''in''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;loop_adjust param=''move''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;loop_adjust param=''out''&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;loop_back&gt;</t>
@@ -10582,16 +10582,16 @@
     <t>&lt;tooltips&gt;&lt;pad_page_select&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;pad_param param="-1"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;pad_param param="+1"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;pad_param2 param="-1"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;pad_param2 param="+1"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;pad_param param='-1'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;pad_param param='+1'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;pad_param2 param='-1'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;pad_param2 param='+1'&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;pause&gt;</t>
@@ -10606,7 +10606,7 @@
     <t>&lt;tooltips&gt;&lt;phrase_sync&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;phrase_sync param="'auto'"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;phrase_sync param=''auto''&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;pitch&gt;</t>
@@ -10615,10 +10615,10 @@
     <t>&lt;tooltips&gt;&lt;pitch_bend&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;pitch_bend param="-2% 500ms"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;pitch_bend param="+2% 500ms"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;pitch_bend param='-2% 500ms'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;pitch_bend param='+2% 500ms'&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;pitch_reset&gt;</t>
@@ -10663,10 +10663,10 @@
     <t>&lt;tooltips&gt;&lt;sampler_abort_rec&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;sampler_bank param="-1"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;sampler_bank param="+1"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;sampler_bank param='-1'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;sampler_bank param='+1'&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;sampler_pad&gt;</t>
@@ -10675,10 +10675,10 @@
     <t>&lt;tooltips&gt;&lt;sampler_rec&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;sampler_rec param="'master'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;sampler_rec param="'mic'"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;sampler_rec param=''master''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;sampler_rec param=''mic''&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;sandbox&gt;</t>
@@ -10693,7 +10693,7 @@
     <t>&lt;tooltips&gt;&lt;select_master_output&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;setting param="'keyDisplay'"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;setting param=''keyDisplay''&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;settings&gt;</t>
@@ -10705,25 +10705,25 @@
     <t>&lt;tooltips&gt;&lt;sideview_options&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;sideview param="'automix'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;sideview param="'automix' 'blink'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;sideview param="'clone'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;sideview param="'karaoke'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;sideview param="'karaoke' 'blink'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;sideview param="'sampler'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;sideview param="'sidelist'"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;sideview param=''automix''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;sideview param=''automix' 'blink''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;sideview param=''clone''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;sideview param=''karaoke''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;sideview param=''karaoke' 'blink''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;sideview param=''sampler''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;sideview param=''sidelist''&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;skin_panel&gt;</t>
@@ -10777,13 +10777,13 @@
     <t>&lt;tooltips&gt;&lt;video_transition_select&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;view_options param="'showkaraoke'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;view_options param="'showmusic'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;view_options param="'showvideo'"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;view_options param=''showkaraoke''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;view_options param=''showmusic''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;view_options param=''showvideo''&gt;</t>
   </si>
   <si>
     <t>このアクションを指令しているボタンが指定デッキにある場合にはtrueを返します: 'action_deck 1 ? actionA : actionB'</t>
